--- a/오류 해결 정리.xlsx
+++ b/오류 해결 정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6705" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,32 @@
   </si>
   <si>
     <t>cmd에서 포트 번호 taskkill로 죽이고 재실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editText에 포커스 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editText.requestFocus 라고 치면 해당 아이디에 포커스 줄 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.xml에서 default를 템플릿으로 두고 
+error 페이지를 만들었는데 템플릿이 로그인페이지에만 적용되고
+에러페이지에는 적용이 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 미해결(2021-10-25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G56"/>
+  <dimension ref="A4:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1026,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오류 해결 정리.xlsx
+++ b/오류 해결 정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="8040"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6705" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,7 +255,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아직 미해결(2021-10-25)</t>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring4 An error has occurred. See the log file (log파일 주소) 라는
+ 알림창이 뜨면서 Spring 실행 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hongpal.tistory.com/entry/Eclipse-An-error-has-occurred-See-the-log-file-%EB%8C%80%EC%B2%98%EB%B2%95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\아직 미해결(2021-10-25)
+-새로 만드는 템플릿의 위치를 위로 올려주니까 정상 작동함(이유는 모르겠음, 2021-10-26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"file" is null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +303,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -300,12 +335,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,9 +353,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,6 +558,82 @@
         <a:xfrm>
           <a:off x="1773699" y="12382500"/>
           <a:ext cx="3807951" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113548</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="16516350"/>
+          <a:ext cx="6019048" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>198651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="17868900"/>
+          <a:ext cx="4667250" cy="2237001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -790,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G58"/>
+  <dimension ref="A4:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,20 +1158,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B60" t="s">
         <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E60" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>